--- a/biology/Zoologie/Croc-Blanc_(série_télévisée)/Croc-Blanc_(série_télévisée).xlsx
+++ b/biology/Zoologie/Croc-Blanc_(série_télévisée)/Croc-Blanc_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croc-Blanc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Croc-Blanc_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Croc-Blanc (White Fang) est une série télévisée franco-néozélando-canadienne en 25 épisodes de 26 minutes, diffusée du 17 septembre 1993 au 10 février 1995 au Canada sur le réseau CBC.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Croc-Blanc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Croc-Blanc_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Croc-Blanc est la conséquence des quotas de production française imposés à la fin des années 1980. M6 coproduira ainsi plusieurs séries dont L'Étalon noir, et Highlander.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Croc-Blanc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Croc-Blanc_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Croc-Blanc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Croc-Blanc_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ken Blackburn : Hank Blair
 Lee Grant as Vera Dillon
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Croc-Blanc_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Croc-Blanc_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
